--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T06:40:04+00:00</t>
+    <t>2025-09-25T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T07:29:00+00:00</t>
+    <t>2025-10-20T12:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Professionnel</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -851,7 +851,7 @@
 </t>
   </si>
   <si>
-    <t>Profession</t>
+    <t>TDDUI Profession</t>
   </si>
   <si>
     <t>Extension permettant de représenter la profession du professionnel.</t>
@@ -1505,7 +1505,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.39453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="73.27734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="67.37109375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="166.7265625" customWidth="true" bestFit="true"/>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:22:03+00:00</t>
+    <t>2025-10-21T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:57:56+00:00</t>
+    <t>2025-10-23T07:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
